--- a/ProyectoPlataformaW/Estu.xlsx
+++ b/ProyectoPlataformaW/Estu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\source\repos\ProyectoPlataformaWeb\ProyectoPlataformaW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB5CD6-EFF9-487D-A656-B3478D8641D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4005C46-C8C0-4A10-99CE-CACF968B4C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Nombres</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Toro@gmail.com</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +554,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{3BA8289E-1E5E-4F4B-87FB-E54869BF013D}"/>

--- a/ProyectoPlataformaW/Estu.xlsx
+++ b/ProyectoPlataformaW/Estu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\source\repos\ProyectoPlataformaWeb\ProyectoPlataformaW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4005C46-C8C0-4A10-99CE-CACF968B4C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B8319C-137B-49B4-9550-2F1A0F730ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nombres</t>
   </si>
@@ -88,30 +88,16 @@
   </si>
   <si>
     <t>Toro@gmail.com</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,16 +120,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,16 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -444,7 +429,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -464,7 +449,7 @@
       <c r="C2">
         <v>1000756</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
@@ -484,7 +469,7 @@
       <c r="C3">
         <v>1023658</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3">
@@ -504,7 +489,7 @@
       <c r="C4">
         <v>1045562</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4">
@@ -524,7 +509,7 @@
       <c r="C5">
         <v>1065894</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5">
@@ -544,7 +529,7 @@
       <c r="C6">
         <v>1103265</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6">
@@ -554,34 +539,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3BA8289E-1E5E-4F4B-87FB-E54869BF013D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{06CCB7B1-9529-479A-AABE-45DB6641BE77}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{F2686B6B-BCD6-445B-B6EF-CA9960DC5079}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{1FDBE834-D70A-4B46-9F70-3152B4CA9BF5}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{119A6599-9151-4C3B-90A6-DEDA0D34C9B5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>